--- a/tests/excel.xlsx
+++ b/tests/excel.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="17895" windowHeight="7875"/>
-  </bookViews>
-  <sheets>
-    <sheet name="basic2" sheetId="2" r:id="rId1"/>
-    <sheet name="basic" sheetId="1" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="124519"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="basic2" sheetId="1" r:id="rId1"/>
+    <s:sheet name="basic" sheetId="2" r:id="rId2"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>bool</t>
   </si>
@@ -51,11 +52,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="yyyy\-mm\-dd" numFmtId="165"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="166"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,23 +84,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="21" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -388,181 +386,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col width="9.10" min="1" max="1"/>
+    <col width="9.10" min="2" max="2"/>
+    <col width="9.10" min="3" max="3"/>
+    <col width="9.10" min="4" max="4"/>
+    <col width="9.10" min="5" max="5"/>
+    <col width="9.10" min="6" max="6"/>
+    <col width="9.10" min="7" max="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row spans="1:7" r="1">
+      <c t="s" r="A1">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c t="s" r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row spans="1:7" r="2">
+      <c t="s" r="A2">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c t="n" r="B2">
+        <v>1</v>
+      </c>
+      <c t="n" r="C2">
         <v>2.83</v>
       </c>
-      <c r="D2" s="2">
-        <v>41558.544502314813</v>
-      </c>
-      <c r="E2">
+      <c t="n" s="1" r="D2">
+        <v>41558.54450231481</v>
+      </c>
+      <c t="n" r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.50071759259259263</v>
-      </c>
-      <c r="G2" s="2">
+      <c t="n" s="2" r="F2">
+        <v>0.5007175925925926</v>
+      </c>
+      <c t="n" s="1" r="G2">
         <v>41558</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row spans="1:7" r="3">
+      <c t="s" r="A3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c t="n" r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c t="n" r="C3">
         <v>4.2435</v>
       </c>
-      <c r="D3" s="2">
-        <v>36872.599827928243</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
+      <c t="n" s="1" r="D3">
+        <v>36872.59982792824</v>
+      </c>
+      <c t="n" r="E3">
+        <v>1</v>
+      </c>
+      <c t="n" s="1" r="G3">
         <v>41613</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row spans="1:7" r="4">
+      <c t="s" r="A4">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c t="n" r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>135.13399999999999</v>
+      <c t="n" r="C4">
+        <v>135.134</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col width="9.10" min="1" max="1"/>
+    <col width="9.10" min="2" max="2"/>
+    <col width="9.10" min="3" max="3"/>
+    <col width="9.10" min="4" max="4"/>
+    <col width="9.10" min="5" max="5"/>
+    <col width="9.10" min="6" max="6"/>
+    <col width="9.10" min="7" max="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row spans="1:7" r="1">
+      <c t="s" r="A1">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c t="s" r="B1">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c t="s" r="C1">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c t="s" r="D1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c t="s" r="E1">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c t="s" r="F1">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c t="s" r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row spans="1:7" r="2">
+      <c t="s" r="A2">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c t="n" r="B2">
+        <v>1</v>
+      </c>
+      <c t="n" r="C2">
         <v>2.83</v>
       </c>
-      <c r="D2" s="2">
-        <v>41558.544502314813</v>
-      </c>
-      <c r="E2">
+      <c t="n" s="3" r="D2">
+        <v>41558.54450231481</v>
+      </c>
+      <c t="n" r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.50071759259259263</v>
-      </c>
-      <c r="G2" s="2">
-        <v>41558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c t="n" s="2" r="F2">
+        <v>0.5007175925925926</v>
+      </c>
+      <c t="n" s="3" r="G2">
+        <v>41558.0</v>
+      </c>
+    </row>
+    <row spans="1:7" r="3">
+      <c t="s" r="A3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c t="n" r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c t="n" r="C3">
         <v>4.2435</v>
       </c>
-      <c r="D3" s="2">
-        <v>36872.599827928243</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>41613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c t="n" s="3" r="D3">
+        <v>36872.59982792245</v>
+      </c>
+      <c t="n" r="E3">
+        <v>1</v>
+      </c>
+      <c t="n" s="3" r="G3">
+        <v>41613.0</v>
+      </c>
+    </row>
+    <row spans="1:7" r="4">
+      <c t="s" r="A4">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c t="n" r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>135.13399999999999</v>
+      <c t="n" r="C4">
+        <v>135.134</v>
+      </c>
+    </row>
+    <row spans="1:7" r="5">
+      <c t="s" r="A5">
+        <v>4</v>
+      </c>
+      <c t="n" r="B5">
+        <v>1</v>
+      </c>
+      <c t="n" r="C5">
+        <v>2.83</v>
+      </c>
+      <c t="n" s="3" r="D5">
+        <v>41558.54450231481</v>
+      </c>
+      <c t="n" r="E5">
+        <v>0</v>
+      </c>
+      <c t="n" s="2" r="F5">
+        <v>0.5007175925925926</v>
+      </c>
+      <c t="n" s="3" r="G5">
+        <v>41558.0</v>
+      </c>
+    </row>
+    <row spans="1:7" r="6">
+      <c t="s" r="A6">
+        <v>9</v>
+      </c>
+      <c t="n" r="B6">
+        <v>2</v>
+      </c>
+      <c t="n" r="C6">
+        <v>4.2435</v>
+      </c>
+      <c t="n" s="3" r="D6">
+        <v>36872.59982792245</v>
+      </c>
+      <c t="n" r="E6">
+        <v>1</v>
+      </c>
+      <c t="n" s="3" r="G6">
+        <v>41613.0</v>
+      </c>
+    </row>
+    <row spans="1:7" r="7">
+      <c t="s" r="A7">
+        <v>6</v>
+      </c>
+      <c t="n" r="B7">
+        <v>3</v>
+      </c>
+      <c t="n" r="C7">
+        <v>135.134</v>
+      </c>
+    </row>
+    <row spans="1:7" r="8">
+      <c t="s" r="A8">
+        <v>4</v>
+      </c>
+      <c t="n" r="B8">
+        <v>1</v>
+      </c>
+      <c t="n" r="C8">
+        <v>2.83</v>
+      </c>
+      <c t="n" s="3" r="D8">
+        <v>41558.54450231481</v>
+      </c>
+      <c t="n" r="E8">
+        <v>0</v>
+      </c>
+      <c t="n" s="2" r="F8">
+        <v>0.5007175925925926</v>
+      </c>
+      <c t="n" s="3" r="G8">
+        <v>41558.0</v>
+      </c>
+    </row>
+    <row spans="1:7" r="9">
+      <c t="s" r="A9">
+        <v>9</v>
+      </c>
+      <c t="n" r="B9">
+        <v>2</v>
+      </c>
+      <c t="n" r="C9">
+        <v>4.2435</v>
+      </c>
+      <c t="n" s="3" r="D9">
+        <v>36872.59982792245</v>
+      </c>
+      <c t="n" r="E9">
+        <v>1</v>
+      </c>
+      <c t="n" s="3" r="G9">
+        <v>41613.0</v>
+      </c>
+    </row>
+    <row spans="1:7" r="10">
+      <c t="s" r="A10">
+        <v>6</v>
+      </c>
+      <c t="n" r="B10">
+        <v>3</v>
+      </c>
+      <c t="n" r="C10">
+        <v>135.134</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>